--- a/Supplemental_Files/SupplTable_1_PeakNumbers_FINAL.xlsx
+++ b/Supplemental_Files/SupplTable_1_PeakNumbers_FINAL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <r>
       <rPr>
@@ -39,7 +39,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: Peak numbers in barley embryo ChIP-seq and ATAC-seq datasets</t>
+      <t xml:space="preserve">: Peak numbers in barley embryo ChIP-seq and ATAC-seq datasets.</t>
     </r>
   </si>
   <si>
@@ -100,9 +100,15 @@
     <t xml:space="preserve">Morex4DAG_ATACseq_merged.bed</t>
   </si>
   <si>
+    <t xml:space="preserve">Morex4DAG_H3K9ac_merged</t>
+  </si>
+  <si>
     <t xml:space="preserve">8DAP</t>
   </si>
   <si>
+    <t xml:space="preserve">Morex8DAP_ATACseq_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Morex8DAP_H3K9ac_1</t>
   </si>
   <si>
@@ -112,7 +118,7 @@
     <t xml:space="preserve">Morex8DAP_H3K27me3_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Morex8DAP_ATACseq_1</t>
+    <t xml:space="preserve">Morex8DAP_ATACseq_2</t>
   </si>
   <si>
     <t xml:space="preserve">Morex8DAP_H3K9ac_2</t>
@@ -124,7 +130,7 @@
     <t xml:space="preserve">Morex8DAP_H3K27me3_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Morex8DAP_ATACseq_2</t>
+    <t xml:space="preserve">Morex8DAP_ATACseq_intersect</t>
   </si>
   <si>
     <t xml:space="preserve">Morex8DAP_H3K9ac_intersect</t>
@@ -136,12 +142,21 @@
     <t xml:space="preserve">Morex8DAP_H3K27me3_intersect</t>
   </si>
   <si>
-    <t xml:space="preserve">Morex8DAP_ATACseq_intersect</t>
+    <t xml:space="preserve">Morex8DAP_ATACseq_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morex8DAP_H3K9ac_merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morex8DAP_H3K4me3_merged</t>
   </si>
   <si>
     <t xml:space="preserve">24DAP</t>
   </si>
   <si>
+    <t xml:space="preserve">Morex24DAP_ATACseq_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Morex24DAG_H3K9ac_1</t>
   </si>
   <si>
@@ -151,7 +166,7 @@
     <t xml:space="preserve">Morex24DAP_H3K27me3_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Morex24DAP_ATACseq_1</t>
+    <t xml:space="preserve">Morex24DAP_ATACseq_2</t>
   </si>
   <si>
     <t xml:space="preserve">Morex24DAG_H3K9ac_2</t>
@@ -163,7 +178,7 @@
     <t xml:space="preserve">Morex24DAP_H3K27me3_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Morex24DAP_ATACseq_2</t>
+    <t xml:space="preserve">Morex24DAP_ATACseq_intersect</t>
   </si>
   <si>
     <t xml:space="preserve">Morex24DAG_H3K9ac_intersect</t>
@@ -173,9 +188,6 @@
   </si>
   <si>
     <t xml:space="preserve">Morex24DAP_H3K27me3_intersect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morex24DAP_ATACseq_intersect</t>
   </si>
   <si>
     <t xml:space="preserve">Intergenic peaks</t>
@@ -221,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -249,12 +261,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -341,7 +347,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -382,14 +388,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -402,11 +408,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -600,7 +602,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -747,8 +749,12 @@
         <v>19</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="7" t="n">
+        <v>46140</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -759,55 +765,43 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>22130</v>
-      </c>
-      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="7" t="n">
-        <v>12976</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="7" t="n">
-        <v>46915</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>53303</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>26393</v>
+        <v>22130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="7" t="n">
-        <v>16198</v>
+        <v>12976</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="7" t="n">
-        <v>43595</v>
+        <v>46915</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,27 +809,27 @@
         <v>55758</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>15911</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>29</v>
+        <v>26393</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="7" t="n">
-        <v>10075</v>
+        <v>16198</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="7" t="n">
-        <v>38506</v>
+        <v>43595</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,113 +837,157 @@
         <v>42899</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>15911</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="7" t="n">
+        <v>10075</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="J10" s="7" t="n">
+        <v>38506</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
+      <c r="A11" s="6" t="n">
+        <v>66139</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>32119</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>32610</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="7" t="n">
-        <v>47454</v>
+        <v>19099</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="7" t="n">
-        <v>59006</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
-        <v>145943</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="7" t="n">
-        <v>66104</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="7" t="n">
-        <v>51563</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="7" t="n">
-        <v>51373</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
-        <v>127166</v>
+        <v>145943</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>30159</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>42</v>
+        <v>32119</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="7" t="n">
-        <v>46220</v>
+        <v>47454</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="7" t="n">
-        <v>48316</v>
+        <v>59006</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
+        <v>127166</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>66104</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="7" t="n">
+        <v>51563</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="7" t="n">
+        <v>51373</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
         <v>93441</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>45</v>
+      <c r="B15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>30159</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="7" t="n">
+        <v>46220</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="7" t="n">
+        <v>48316</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,18 +998,18 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="12" t="s">
@@ -979,10 +1017,10 @@
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,7 +1028,7 @@
         <v>43851</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="n">
@@ -998,71 +1036,75 @@
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14" t="n">
-        <v>4396</v>
+        <v>27579</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7" t="n">
-        <v>2385</v>
+        <v>11764</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="10" t="s">
-        <v>20</v>
+      <c r="E20" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="K20" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
-        <v>23453</v>
+        <v>35530</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="15" t="n">
+      <c r="E21" s="13" t="n">
         <v>12487</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14" t="n">
-        <v>3970</v>
+        <v>8009</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7" t="n">
-        <v>438</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="10" t="s">
-        <v>33</v>
+      <c r="E22" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="K22" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
-        <v>58823</v>
+        <v>55250</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="n">
@@ -1070,69 +1112,71 @@
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14" t="n">
-        <v>6005</v>
+        <v>14351</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="n">
-        <v>3403</v>
+        <v>11810</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="10" t="s">
-        <v>54</v>
+      <c r="E24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="K24" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
         <v>32955</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="16"/>
+        <v>59</v>
+      </c>
+      <c r="C25" s="15"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="n">
         <v>20540</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14" t="n">
-        <v>6542</v>
+        <v>8485</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="n">
-        <v>790</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="17"/>
+      <c r="A27" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="17" t="n">
+      <c r="A28" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="16" t="n">
         <v>139283</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="17" t="n">
+      <c r="A29" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="16" t="n">
         <v>74614</v>
       </c>
     </row>
